--- a/Programming_Assignments/Trials_PA1.xlsx
+++ b/Programming_Assignments/Trials_PA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannythroop/Documents/COSC 3100/Programming_Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F8097F-0F5C-6E4D-A606-D1A4C254F78F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885E038-2681-4443-BA63-12D4EF0B518B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4983,16 +4983,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>664633</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5019,16 +5019,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5379,7 +5379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AJ25"/>
     </sheetView>
   </sheetViews>
@@ -8109,8 +8109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Programming_Assignments/Trials_PA1.xlsx
+++ b/Programming_Assignments/Trials_PA1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannythroop/Documents/COSC 3100/Programming_Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885E038-2681-4443-BA63-12D4EF0B518B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4F4F46-6489-6049-A464-7C66EAA8D0A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38380" yWindow="5520" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rec_fib" sheetId="1" r:id="rId1"/>
     <sheet name="good_fib" sheetId="2" r:id="rId2"/>
+    <sheet name="Final Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>rec_fib(n)</t>
   </si>
@@ -66,12 +67,168 @@
   <si>
     <t>Micro</t>
   </si>
+  <si>
+    <t>Good Fibonacci (nsec)</t>
+  </si>
+  <si>
+    <t>177.933  ± 21.093</t>
+  </si>
+  <si>
+    <t>444.191  ± 57.626</t>
+  </si>
+  <si>
+    <t>469.368  ± 46.011</t>
+  </si>
+  <si>
+    <t>499.427  ± 22.341</t>
+  </si>
+  <si>
+    <t>527.592  ± 13.154</t>
+  </si>
+  <si>
+    <t>577.686  ± 19.912</t>
+  </si>
+  <si>
+    <t>607.537  ± 8.715</t>
+  </si>
+  <si>
+    <t>643.667  ± 24.056</t>
+  </si>
+  <si>
+    <t>675.559  ± 13.281</t>
+  </si>
+  <si>
+    <t>711.708  ± 11.857</t>
+  </si>
+  <si>
+    <t>755.263  ± 55.015</t>
+  </si>
+  <si>
+    <t>778.88  ± 20.511</t>
+  </si>
+  <si>
+    <t>819.609  ± 36.841</t>
+  </si>
+  <si>
+    <t>857.669  ± 16.944</t>
+  </si>
+  <si>
+    <t>904.582  ± 14.95</t>
+  </si>
+  <si>
+    <t>966.654  ± 9.11</t>
+  </si>
+  <si>
+    <t>1017.213  ± 15.619</t>
+  </si>
+  <si>
+    <t>1088.437  ± 45.495</t>
+  </si>
+  <si>
+    <t>1131.612  ± 45.443</t>
+  </si>
+  <si>
+    <t>1180.881  ± 35.057</t>
+  </si>
+  <si>
+    <t>1231.952  ± 65.472</t>
+  </si>
+  <si>
+    <t>1260.149  ± 25.698</t>
+  </si>
+  <si>
+    <t>1301.822  ± 8.631</t>
+  </si>
+  <si>
+    <t>1389.601  ± 117.67</t>
+  </si>
+  <si>
+    <t>Recrusive Fibonacci (nsec)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>202.24  ± 29.186</t>
+  </si>
+  <si>
+    <t>581.602  ± 61.903</t>
+  </si>
+  <si>
+    <t>898.314  ± 107.369</t>
+  </si>
+  <si>
+    <t>1107.635  ± 58.598</t>
+  </si>
+  <si>
+    <t>1700.789  ± 27.111</t>
+  </si>
+  <si>
+    <t>2785.763  ± 51.268</t>
+  </si>
+  <si>
+    <t>4466.812  ± 38.321</t>
+  </si>
+  <si>
+    <t>7236.813  ± 68.84</t>
+  </si>
+  <si>
+    <t>11757.179  ± 121.752</t>
+  </si>
+  <si>
+    <t>19723.467  ± 322.535</t>
+  </si>
+  <si>
+    <t>31382.675  ± 325.889</t>
+  </si>
+  <si>
+    <t>50497.538  ± 265.645</t>
+  </si>
+  <si>
+    <t>81514.471  ± 627.053</t>
+  </si>
+  <si>
+    <t>131859.875  ± 3576.055</t>
+  </si>
+  <si>
+    <t>211982.875  ± 1902.805</t>
+  </si>
+  <si>
+    <t>340712.125  ± 2986.543</t>
+  </si>
+  <si>
+    <t>548667  ± 3816.186</t>
+  </si>
+  <si>
+    <t>907435.292  ± 77989.629</t>
+  </si>
+  <si>
+    <t>1428850.833  ± 10429.325</t>
+  </si>
+  <si>
+    <t>2286828.333  ± 7766.445</t>
+  </si>
+  <si>
+    <t>3679702.5  ± 15697.394</t>
+  </si>
+  <si>
+    <t>5927434.167  ± 13145.598</t>
+  </si>
+  <si>
+    <t>9793993.75  ± 936934.923</t>
+  </si>
+  <si>
+    <t>15826258.333  ± 1476100</t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +240,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,15 +280,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -250,7 +443,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>11740.454389450124</c:v>
+                  <c:v>185.51480611678829</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>546.12874153315249</c:v>
@@ -372,7 +565,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>11773.903943883213</c:v>
+                  <c:v>218.96436054987845</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>617.07517513351411</c:v>
@@ -889,7 +1082,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>11.740454389450123</c:v>
+                  <c:v>0.18551480611678831</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5461287415331525</c:v>
@@ -1011,7 +1204,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>11.773903943883214</c:v>
+                  <c:v>0.21896436054987845</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.61707517513351406</c:v>
@@ -2678,6 +2871,641 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Good</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fibonacci (Python 3.9)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>good_fib!$AF$2:$AF$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>165.84539665034313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411.16857773578107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>443.00100790206238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>486.62475547237807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520.05413549030288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>566.27543664861309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>602.54352191765008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>629.881787045024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>667.94827660254145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>704.91285130739675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>723.73643913147691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>767.12644823051266</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>798.49776259430826</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>847.95902427281408</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>896.01539605851849</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>961.43305172890541</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1008.2626607028926</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1062.3666772376205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1105.5710588380682</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1160.7921926562017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1194.4332616848289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1245.422639782751</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1296.8754857689266</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1322.1705069265145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F67-724D-BD28-D6BC9CD5E099}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>good_fib!$AG$2:$AG$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>190.01968668299017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477.2125889308856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>495.73415876460433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.22966119428816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>535.13036450969719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>589.09648001805317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>612.53131141568304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>657.45179628830954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>683.16955673079201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>718.50248202593639</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>786.7885608685234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>790.63396843615362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>840.72032073902517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>867.37855906051891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>913.14952060814812</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>971.87444827109471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1026.1631726304408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1114.507489429046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1157.6531078285986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1200.9703073437986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1269.4700716485042</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1274.8748602172491</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1306.7678475644072</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1457.0311597401528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F67-724D-BD28-D6BC9CD5E099}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="472975295"/>
+        <c:axId val="473163567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472975295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473163567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473163567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nanoseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472975295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2838,6 +3666,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4902,20 +5770,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146049</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612774</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>140016</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4942,16 +6326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5053,7 +6437,57 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5186E512-6781-A444-948F-3806F0A6E72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B10E2D89-0830-284C-BEE1-B6AFC3EA1BDB}" name="Final_Results" displayName="Final_Results" ref="A1:C25" totalsRowShown="0">
+  <autoFilter ref="A1:C25" xr:uid="{EF0EA5BD-9957-BE49-A8A3-CBD634F9F706}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3B82D6F5-23C6-D84F-ACBD-F1D860C65237}" name="Value">
+      <calculatedColumnFormula>A1 + 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FD0CC15B-FFB3-EF45-AADE-9A7BA52092F6}" name="Recrusive Fibonacci (nsec)"/>
+    <tableColumn id="4" xr3:uid="{98415D02-9A14-4A4D-8790-29C0F5C88A72}" name="Good Fibonacci (nsec)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5377,15 +6811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AJ25"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK27" sqref="AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5483,7 +6917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5560,8 +6994,8 @@
         <v>202.71799999999999</v>
       </c>
       <c r="AA2">
-        <f>AA10</f>
-        <v>11757.179166666669</v>
+        <f>AVERAGE(B2:Y2)</f>
+        <v>202.23958333333337</v>
       </c>
       <c r="AB2">
         <f>STDEV(B2:Y2)</f>
@@ -5577,22 +7011,26 @@
       </c>
       <c r="AF2">
         <f>AA2-AD2</f>
-        <v>11740.454389450124</v>
+        <v>185.51480611678829</v>
       </c>
       <c r="AG2">
         <f>AA2+AD2</f>
-        <v>11773.903943883213</v>
+        <v>218.96436054987845</v>
       </c>
       <c r="AI2">
         <f>AF2/1000</f>
-        <v>11.740454389450123</v>
+        <v>0.18551480611678831</v>
       </c>
       <c r="AJ2">
         <f>AG2/1000</f>
-        <v>11.773903943883214</v>
+        <v>0.21896436054987845</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>ROUND(AA2,3)&amp;"  ± "&amp;ROUND(AB2,3)</f>
+        <v>202.24  ± 29.186</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5700,8 +7138,12 @@
         <f t="shared" ref="AJ3:AJ25" si="6">AG3/1000</f>
         <v>0.61707517513351406</v>
       </c>
+      <c r="AM3" t="str">
+        <f t="shared" ref="AM3:AM25" si="7">ROUND(AA3,3)&amp;"  ± "&amp;ROUND(AB3,3)</f>
+        <v>581.602  ± 61.903</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5778,7 +7220,7 @@
         <v>931.97400000000005</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA3:AA25" si="7">AVERAGE(B4:Y4)</f>
+        <f t="shared" ref="AA3:AA25" si="8">AVERAGE(B4:Y4)</f>
         <v>898.31400000000019</v>
       </c>
       <c r="AB4">
@@ -5809,8 +7251,12 @@
         <f t="shared" si="6"/>
         <v>0.95984119967911385</v>
       </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="7"/>
+        <v>898.314  ± 107.369</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5887,7 +7333,7 @@
         <v>1061.55</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1107.635</v>
       </c>
       <c r="AB5">
@@ -5918,8 +7364,12 @@
         <f t="shared" si="6"/>
         <v>1.1412143366245724</v>
       </c>
+      <c r="AM5" t="str">
+        <f t="shared" si="7"/>
+        <v>1107.635  ± 58.598</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5996,7 +7446,7 @@
         <v>1690.66</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1700.7891666666667</v>
       </c>
       <c r="AB6">
@@ -6027,8 +7477,12 @@
         <f t="shared" si="6"/>
         <v>1.7163251231059187</v>
       </c>
+      <c r="AM6" t="str">
+        <f t="shared" si="7"/>
+        <v>1700.789  ± 27.111</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6105,7 +7559,7 @@
         <v>2762.55</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2785.7629166666661</v>
       </c>
       <c r="AB7">
@@ -6136,8 +7590,12 @@
         <f t="shared" si="6"/>
         <v>2.8151415212831616</v>
       </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="7"/>
+        <v>2785.763  ± 51.268</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6214,7 +7672,7 @@
         <v>4454.8900000000003</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4466.8116666666665</v>
       </c>
       <c r="AB8">
@@ -6245,8 +7703,12 @@
         <f t="shared" si="6"/>
         <v>4.4887714815865953</v>
       </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="7"/>
+        <v>4466.812  ± 38.321</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6323,7 +7785,7 @@
         <v>7218.77</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7236.8129166666658</v>
       </c>
       <c r="AB9">
@@ -6354,8 +7816,12 @@
         <f t="shared" si="6"/>
         <v>7.2762611713623722</v>
       </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="7"/>
+        <v>7236.813  ± 68.84</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6432,7 +7898,7 @@
         <v>11695.3</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11757.179166666669</v>
       </c>
       <c r="AB10">
@@ -6463,8 +7929,12 @@
         <f t="shared" si="6"/>
         <v>11.826948395929351</v>
       </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="7"/>
+        <v>11757.179  ± 121.752</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6541,7 +8011,7 @@
         <v>19380</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19723.466666666664</v>
       </c>
       <c r="AB11">
@@ -6572,8 +8042,12 @@
         <f t="shared" si="6"/>
         <v>19.908293492554058</v>
       </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="7"/>
+        <v>19723.467  ± 322.535</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6650,7 +8124,7 @@
         <v>31680.7</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31382.674999999999</v>
       </c>
       <c r="AB12">
@@ -6681,8 +8155,12 @@
         <f t="shared" si="6"/>
         <v>31.569423810880846</v>
       </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="7"/>
+        <v>31382.675  ± 325.889</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6759,7 +8237,7 @@
         <v>50325.2</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50497.537499999999</v>
       </c>
       <c r="AB13">
@@ -6790,8 +8268,12 @@
         <f t="shared" si="6"/>
         <v>50.649763759515217</v>
       </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="7"/>
+        <v>50497.538  ± 265.645</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6868,7 +8350,7 @@
         <v>80966.5</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81514.47083333334</v>
       </c>
       <c r="AB14">
@@ -6899,8 +8381,12 @@
         <f t="shared" si="6"/>
         <v>81.873800416120062</v>
       </c>
+      <c r="AM14" t="str">
+        <f t="shared" si="7"/>
+        <v>81514.471  ± 627.053</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6977,7 +8463,7 @@
         <v>131339</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>131859.875</v>
       </c>
       <c r="AB15">
@@ -7008,8 +8494,12 @@
         <f t="shared" si="6"/>
         <v>133.90911519369317</v>
       </c>
+      <c r="AM15" t="str">
+        <f t="shared" si="7"/>
+        <v>131859.875  ± 3576.055</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7086,7 +8576,7 @@
         <v>213475</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>211982.875</v>
       </c>
       <c r="AB16">
@@ -7117,8 +8607,12 @@
         <f t="shared" si="6"/>
         <v>213.07326785023281</v>
       </c>
+      <c r="AM16" t="str">
+        <f t="shared" si="7"/>
+        <v>211982.875  ± 1902.805</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7195,7 +8689,7 @@
         <v>339432</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>340712.125</v>
       </c>
       <c r="AB17">
@@ -7226,8 +8720,12 @@
         <f t="shared" si="6"/>
         <v>342.42354829678061</v>
       </c>
+      <c r="AM17" t="str">
+        <f t="shared" si="7"/>
+        <v>340712.125  ± 2986.543</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7304,7 +8802,7 @@
         <v>548510</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>548667</v>
       </c>
       <c r="AB18">
@@ -7335,8 +8833,12 @@
         <f t="shared" si="6"/>
         <v>550.85384602498289</v>
       </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="7"/>
+        <v>548667  ± 3816.186</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7413,7 +8915,7 @@
         <v>893407</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>907435.29166666663</v>
       </c>
       <c r="AB19">
@@ -7444,8 +8946,12 @@
         <f t="shared" si="6"/>
         <v>952.12685836406979</v>
       </c>
+      <c r="AM19" t="str">
+        <f t="shared" si="7"/>
+        <v>907435.292  ± 77989.629</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7522,7 +9028,7 @@
         <v>1427080</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1428850.8333333333</v>
       </c>
       <c r="AB20">
@@ -7553,8 +9059,12 @@
         <f t="shared" si="6"/>
         <v>1434.8273059934202</v>
       </c>
+      <c r="AM20" t="str">
+        <f t="shared" si="7"/>
+        <v>1428850.833  ± 10429.325</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7631,7 +9141,7 @@
         <v>2296600</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2286828.3333333335</v>
       </c>
       <c r="AB21">
@@ -7662,8 +9172,12 @@
         <f t="shared" si="6"/>
         <v>2291.2788557368253</v>
       </c>
+      <c r="AM21" t="str">
+        <f t="shared" si="7"/>
+        <v>2286828.333  ± 7766.445</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7740,7 +9254,7 @@
         <v>3684740</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3679702.5</v>
       </c>
       <c r="AB22">
@@ -7771,8 +9285,12 @@
         <f t="shared" si="6"/>
         <v>3688.6978130528887</v>
       </c>
+      <c r="AM22" t="str">
+        <f t="shared" si="7"/>
+        <v>3679702.5  ± 15697.394</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7849,7 +9367,7 @@
         <v>5911960</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5927434.166666667</v>
       </c>
       <c r="AB23">
@@ -7880,8 +9398,12 @@
         <f t="shared" si="6"/>
         <v>5934.9671858379461</v>
       </c>
+      <c r="AM23" t="str">
+        <f t="shared" si="7"/>
+        <v>5927434.167  ± 13145.598</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7958,7 +9480,7 @@
         <v>9563570</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9793993.75</v>
       </c>
       <c r="AB24">
@@ -7989,8 +9511,12 @@
         <f t="shared" si="6"/>
         <v>10330.899619864989</v>
       </c>
+      <c r="AM24" t="str">
+        <f t="shared" si="7"/>
+        <v>9793993.75  ± 936934.923</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8097,6 +9623,10 @@
       <c r="AJ25">
         <f t="shared" si="6"/>
         <v>16672.130600943783</v>
+      </c>
+      <c r="AM25" t="str">
+        <f t="shared" si="7"/>
+        <v>15826258.333  ± 1476100.956</v>
       </c>
     </row>
   </sheetData>
@@ -8107,15 +9637,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" topLeftCell="W24" workbookViewId="0">
+      <selection activeCell="AJ38" sqref="AJ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8212,8 +9742,14 @@
       <c r="AI1" t="s">
         <v>10</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8321,8 +9857,12 @@
         <f>AG2/1000</f>
         <v>0.19001968668299016</v>
       </c>
+      <c r="AL2" t="str">
+        <f>ROUND(AA2, 3)&amp;"  ± "&amp;ROUND(AB2, 3)</f>
+        <v>177.933  ± 21.093</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8430,8 +9970,12 @@
         <f t="shared" si="6"/>
         <v>0.47721258893088558</v>
       </c>
+      <c r="AL3" t="str">
+        <f t="shared" ref="AL3:AL25" si="7">ROUND(AA3, 3)&amp;"  ± "&amp;ROUND(AB3, 3)</f>
+        <v>444.191  ± 57.626</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8539,8 +10083,12 @@
         <f t="shared" si="6"/>
         <v>0.4957341587646043</v>
       </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="7"/>
+        <v>469.368  ± 46.011</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8648,8 +10196,12 @@
         <f t="shared" si="6"/>
         <v>0.51222966119428814</v>
       </c>
+      <c r="AL5" t="str">
+        <f t="shared" si="7"/>
+        <v>499.427  ± 22.341</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8757,8 +10309,12 @@
         <f t="shared" si="6"/>
         <v>0.5351303645096972</v>
       </c>
+      <c r="AL6" t="str">
+        <f t="shared" si="7"/>
+        <v>527.592  ± 13.154</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8866,8 +10422,12 @@
         <f t="shared" si="6"/>
         <v>0.58909648001805315</v>
       </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="7"/>
+        <v>577.686  ± 19.912</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8975,8 +10535,12 @@
         <f t="shared" si="6"/>
         <v>0.61253131141568307</v>
       </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="7"/>
+        <v>607.537  ± 8.715</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9084,8 +10648,12 @@
         <f t="shared" si="6"/>
         <v>0.65745179628830952</v>
       </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="7"/>
+        <v>643.667  ± 24.056</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9193,8 +10761,12 @@
         <f t="shared" si="6"/>
         <v>0.68316955673079205</v>
       </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="7"/>
+        <v>675.559  ± 13.281</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9302,8 +10874,12 @@
         <f t="shared" si="6"/>
         <v>0.71850248202593636</v>
       </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="7"/>
+        <v>711.708  ± 11.857</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9411,8 +10987,12 @@
         <f t="shared" si="6"/>
         <v>0.78678856086852345</v>
       </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="7"/>
+        <v>755.263  ± 55.015</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9520,8 +11100,12 @@
         <f t="shared" si="6"/>
         <v>0.79063396843615363</v>
       </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="7"/>
+        <v>778.88  ± 20.511</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9629,8 +11213,12 @@
         <f t="shared" si="6"/>
         <v>0.84072032073902514</v>
       </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="7"/>
+        <v>819.609  ± 36.841</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9738,8 +11326,12 @@
         <f t="shared" si="6"/>
         <v>0.86737855906051886</v>
       </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="7"/>
+        <v>857.669  ± 16.944</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9847,8 +11439,12 @@
         <f t="shared" si="6"/>
         <v>0.91314952060814814</v>
       </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="7"/>
+        <v>904.582  ± 14.95</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9956,8 +11552,12 @@
         <f t="shared" si="6"/>
         <v>0.9718744482710947</v>
       </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="7"/>
+        <v>966.654  ± 9.11</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10065,8 +11665,12 @@
         <f t="shared" si="6"/>
         <v>1.0261631726304408</v>
       </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="7"/>
+        <v>1017.213  ± 15.619</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10174,8 +11778,12 @@
         <f t="shared" si="6"/>
         <v>1.1145074894290461</v>
       </c>
+      <c r="AL19" t="str">
+        <f t="shared" si="7"/>
+        <v>1088.437  ± 45.495</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10283,8 +11891,12 @@
         <f t="shared" si="6"/>
         <v>1.1576531078285988</v>
       </c>
+      <c r="AL20" t="str">
+        <f t="shared" si="7"/>
+        <v>1131.612  ± 45.443</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10392,8 +12004,12 @@
         <f t="shared" si="6"/>
         <v>1.2009703073437985</v>
       </c>
+      <c r="AL21" t="str">
+        <f t="shared" si="7"/>
+        <v>1180.881  ± 35.057</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10501,8 +12117,12 @@
         <f t="shared" si="6"/>
         <v>1.2694700716485043</v>
       </c>
+      <c r="AL22" t="str">
+        <f t="shared" si="7"/>
+        <v>1231.952  ± 65.472</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10610,8 +12230,12 @@
         <f t="shared" si="6"/>
         <v>1.2748748602172491</v>
       </c>
+      <c r="AL23" t="str">
+        <f t="shared" si="7"/>
+        <v>1260.149  ± 25.698</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10719,8 +12343,12 @@
         <f t="shared" si="6"/>
         <v>1.3067678475644073</v>
       </c>
+      <c r="AL24" t="str">
+        <f t="shared" si="7"/>
+        <v>1301.822  ± 8.631</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10827,10 +12455,385 @@
       <c r="AJ25">
         <f t="shared" si="6"/>
         <v>1.4570311597401528</v>
+      </c>
+      <c r="AL25" t="str">
+        <f t="shared" si="7"/>
+        <v>1389.601  ± 117.67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4909608-6CB7-3C4A-A960-37F595B0AC3C}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A25" si="0">A3 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>